--- a/W8/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W8/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -941,9 +941,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -981,6 +978,7 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2771,7 +2769,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -3107,9 +3105,9 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3204,27 +3202,27 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="61">
+      <c r="A10" s="60">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="65">
+      <c r="D10" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="64">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H10" s="15"/>
@@ -3299,13 +3297,13 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>124</v>
+      <c r="F13" s="72" t="s">
+        <v>125</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
@@ -3359,26 +3357,26 @@
       <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="61">
+      <c r="A16" s="60">
         <v>8</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="65">
+      <c r="D16" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="64">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F16" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="67" t="s">
+      <c r="F16" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H16" s="9"/>
@@ -3554,27 +3552,27 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="61">
+      <c r="A10" s="60">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="65">
+      <c r="D10" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="64">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H10" s="9"/>
@@ -3632,27 +3630,27 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="61">
+      <c r="A13" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="65">
+      <c r="D13" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="64">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H13" s="9"/>
@@ -3662,7 +3660,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="57" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3734,26 +3732,26 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="61">
+      <c r="A17" s="60">
         <v>9</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="65">
+      <c r="D17" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="64">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H17" s="6"/>
@@ -3878,27 +3876,27 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="61">
+      <c r="A9" s="60">
         <f t="shared" ref="A9:A14" si="0">ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="64">
         <f t="shared" ref="E9:E15" si="1">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H9" s="6"/>
@@ -3930,17 +3928,17 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="59">
+      <c r="A11" s="58">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="59" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="7">
@@ -3956,27 +3954,27 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="61">
+      <c r="A12" s="60">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="64">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H12" s="6"/>
@@ -4008,100 +4006,100 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="61">
+      <c r="A14" s="60">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="64">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="61">
+      <c r="A15" s="60">
         <v>7</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="64">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="61">
+      <c r="A16" s="60">
         <v>8</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="64">
         <v>120</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="67" t="s">
+      <c r="G16" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="61">
+      <c r="A17" s="60">
         <v>9</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="64">
         <v>120</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H17" s="9"/>
@@ -4157,101 +4155,101 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61">
+      <c r="A20" s="60">
         <v>12</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="64">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61">
+      <c r="A21" s="60">
         <v>13</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="64">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="67" t="s">
+      <c r="G21" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61">
+      <c r="A22" s="60">
         <v>14</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="64">
         <f t="shared" ref="E22:E23" si="3">IF(D22="Complex", 240, IF(D22="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F22" s="70" t="s">
+      <c r="F22" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61">
+      <c r="A23" s="60">
         <v>15</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="64">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="66" t="s">
         <v>130</v>
       </c>
       <c r="H23" s="9"/>

--- a/W8/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W8/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -458,9 +458,6 @@
     <t>Search account</t>
   </si>
   <si>
-    <t>Notification</t>
-  </si>
-  <si>
     <t>Manager order</t>
   </si>
   <si>
@@ -494,18 +491,12 @@
     <t>Search Service</t>
   </si>
   <si>
-    <t>Manager service</t>
-  </si>
-  <si>
     <t>Manage Blogs</t>
   </si>
   <si>
     <t>Manager product</t>
   </si>
   <si>
-    <t>Manage Feedback</t>
-  </si>
-  <si>
     <t>Add feedback</t>
   </si>
   <si>
@@ -551,22 +542,31 @@
     <t>Account Detail</t>
   </si>
   <si>
-    <t>Service Details</t>
-  </si>
-  <si>
     <t>List Shop</t>
   </si>
   <si>
     <t>Product detail</t>
   </si>
   <si>
-    <t>View Shop Details</t>
-  </si>
-  <si>
     <t>Manage Blog Detail</t>
   </si>
   <si>
     <t>Search Shop</t>
+  </si>
+  <si>
+    <t>Favorite Products</t>
+  </si>
+  <si>
+    <t>Feedback list</t>
+  </si>
+  <si>
+    <t>Shop Information</t>
+  </si>
+  <si>
+    <t>Report Shop</t>
+  </si>
+  <si>
+    <t>Update Sale Price</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,6 +741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
@@ -801,7 +807,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -969,16 +975,28 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2010,7 +2028,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -2158,7 +2176,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>1</v>
@@ -2176,7 +2194,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>1</v>
@@ -2194,7 +2212,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>1</v>
@@ -2212,7 +2230,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>1</v>
@@ -2284,7 +2302,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>1</v>
@@ -2533,7 +2551,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>19</v>
@@ -2542,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -2551,7 +2569,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>19</v>
@@ -2560,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="8"/>
     </row>
@@ -2605,7 +2623,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>19</v>
@@ -2967,7 +2985,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>24</v>
@@ -3039,7 +3057,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
@@ -3063,7 +3081,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
@@ -3105,9 +3123,9 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3207,7 +3225,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>25</v>
@@ -3233,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -3297,7 +3315,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="70" t="s">
         <v>125</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -3357,27 +3375,27 @@
       <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="60">
+      <c r="A16" s="58">
         <v>8</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="64">
+      <c r="D16" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="73">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="66" t="s">
-        <v>130</v>
+      <c r="G16" s="75" t="s">
+        <v>129</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -3386,7 +3404,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>24</v>
@@ -3412,7 +3430,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>24</v>
@@ -3457,7 +3475,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:G17"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3531,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>24</v>
@@ -3557,16 +3575,15 @@
         <v>2</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D10" s="63" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="64">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="F10" s="65" t="s">
@@ -3583,7 +3600,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -3609,7 +3626,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>10</v>
@@ -3630,28 +3647,28 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="60">
+      <c r="A13" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="64">
+      <c r="B13" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="73">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="66" t="s">
-        <v>130</v>
+      <c r="G13" s="75" t="s">
+        <v>129</v>
       </c>
       <c r="H13" s="9"/>
     </row>
@@ -3660,8 +3677,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>170</v>
+      <c r="B14" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -3682,27 +3699,27 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="60">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="64">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>129</v>
+      <c r="G15" s="66" t="s">
+        <v>130</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -3711,7 +3728,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>25</v>
@@ -3736,7 +3753,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C17" s="62" t="s">
         <v>10</v>
@@ -3748,7 +3765,7 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="67" t="s">
         <v>121</v>
       </c>
       <c r="G17" s="66" t="s">
@@ -3762,7 +3779,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>24</v>
@@ -3805,9 +3822,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3876,28 +3893,28 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="60">
+      <c r="A9" s="58">
         <f t="shared" ref="A9:A14" si="0">ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="62" t="s">
+      <c r="B9" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="64">
+      <c r="D9" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="73">
         <f t="shared" ref="E9:E15" si="1">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
-        <v>120</v>
-      </c>
-      <c r="F9" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="66" t="s">
-        <v>130</v>
+      <c r="G9" s="75" t="s">
+        <v>129</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -3915,7 +3932,7 @@
       <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="73">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3933,7 +3950,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="59" t="s">
         <v>10</v>
@@ -3941,7 +3958,7 @@
       <c r="D11" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="73">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3959,7 +3976,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>24</v>
@@ -3971,7 +3988,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="68" t="s">
         <v>120</v>
       </c>
       <c r="G12" s="66" t="s">
@@ -3984,18 +4001,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="B13" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="73">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>124</v>
@@ -4011,19 +4028,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="64">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="F14" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="67" t="s">
         <v>124</v>
       </c>
       <c r="G14" s="66" t="s">
@@ -4036,10 +4053,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="63" t="s">
         <v>2</v>
@@ -4048,7 +4065,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="67" t="s">
         <v>125</v>
       </c>
       <c r="G15" s="66" t="s">
@@ -4057,26 +4074,26 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="60">
+      <c r="A16" s="58">
         <v>8</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="64">
-        <v>120</v>
-      </c>
-      <c r="F16" s="69" t="s">
+      <c r="D16" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="73">
+        <v>60</v>
+      </c>
+      <c r="F16" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="66" t="s">
-        <v>130</v>
+      <c r="G16" s="75" t="s">
+        <v>129</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -4085,10 +4102,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>2</v>
@@ -4096,7 +4113,7 @@
       <c r="E17" s="64">
         <v>120</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="69" t="s">
         <v>121</v>
       </c>
       <c r="G17" s="66" t="s">
@@ -4109,7 +4126,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -4117,7 +4134,7 @@
       <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="73">
         <f t="shared" ref="E18:E21" si="2">IF(D18="Complex", 240, IF(D18="Medium",120,60))</f>
         <v>60</v>
       </c>
@@ -4134,15 +4151,15 @@
         <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="73">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -4162,7 +4179,7 @@
         <v>115</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" s="63" t="s">
         <v>3</v>
@@ -4171,7 +4188,7 @@
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="68" t="s">
         <v>120</v>
       </c>
       <c r="G20" s="66" t="s">
@@ -4184,19 +4201,19 @@
         <v>13</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="64">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="F21" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="67" t="s">
         <v>124</v>
       </c>
       <c r="G21" s="66" t="s">
@@ -4205,52 +4222,52 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60">
+      <c r="A22" s="58">
         <v>14</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="62" t="s">
+      <c r="B22" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="73">
         <f t="shared" ref="E22:E23" si="3">IF(D22="Complex", 240, IF(D22="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="66" t="s">
-        <v>130</v>
+      <c r="G22" s="75" t="s">
+        <v>129</v>
       </c>
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60">
+      <c r="A23" s="58">
         <v>15</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="63" t="s">
+      <c r="B23" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="73">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="66" t="s">
-        <v>130</v>
+      <c r="G23" s="75" t="s">
+        <v>129</v>
       </c>
       <c r="H23" s="9"/>
     </row>

--- a/W8/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W8/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -452,9 +452,6 @@
     <t>View cart</t>
   </si>
   <si>
-    <t>Delete product in cart</t>
-  </si>
-  <si>
     <t>Search account</t>
   </si>
   <si>
@@ -566,7 +563,10 @@
     <t>Report Shop</t>
   </si>
   <si>
-    <t>Update Sale Price</t>
+    <t>Product History</t>
+  </si>
+  <si>
+    <t>List of Report</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -976,7 +976,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -997,6 +996,11 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1829,8 +1833,8 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="8" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,7 +2032,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>10</v>
@@ -2176,7 +2180,7 @@
         <v>59</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>1</v>
@@ -2194,7 +2198,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>1</v>
@@ -2212,7 +2216,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>1</v>
@@ -2230,7 +2234,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>1</v>
@@ -2302,7 +2306,7 @@
         <v>64</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>1</v>
@@ -2551,7 +2555,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>19</v>
@@ -2560,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -2569,7 +2573,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>19</v>
@@ -2578,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F46" s="8"/>
     </row>
@@ -2623,7 +2627,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>19</v>
@@ -2985,7 +2989,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>24</v>
@@ -3057,7 +3061,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
@@ -3081,7 +3085,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
@@ -3123,9 +3127,9 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3225,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>25</v>
@@ -3251,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -3315,7 +3319,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="69" t="s">
         <v>125</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -3329,10 +3333,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1</v>
@@ -3378,23 +3382,23 @@
       <c r="A16" s="58">
         <v>8</v>
       </c>
-      <c r="B16" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="71" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="77">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F16" s="70" t="s">
+      <c r="F16" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="75" t="s">
+      <c r="G16" s="74" t="s">
         <v>129</v>
       </c>
       <c r="H16" s="9"/>
@@ -3404,7 +3408,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>24</v>
@@ -3430,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>24</v>
@@ -3475,7 +3479,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3549,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>24</v>
@@ -3570,27 +3574,27 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="60">
+      <c r="A10" s="58">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="62" t="s">
+      <c r="B10" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="64">
+      <c r="D10" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="77">
         <v>60</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="66" t="s">
-        <v>130</v>
+      <c r="G10" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -3600,7 +3604,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -3626,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>10</v>
@@ -3652,7 +3656,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>25</v>
@@ -3660,14 +3664,14 @@
       <c r="D13" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="77">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="74" t="s">
         <v>129</v>
       </c>
       <c r="H13" s="9"/>
@@ -3678,7 +3682,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -3699,27 +3703,27 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="60">
+      <c r="A15" s="58">
         <v>7</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" s="63" t="s">
+      <c r="B15" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="64">
+      <c r="D15" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="77">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="66" t="s">
-        <v>130</v>
+      <c r="G15" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -3728,7 +3732,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>25</v>
@@ -3749,27 +3753,27 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="60">
+      <c r="A17" s="58">
         <v>9</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="62" t="s">
+      <c r="B17" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="64">
+      <c r="D17" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="77">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="66" t="s">
-        <v>130</v>
+      <c r="G17" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -3779,7 +3783,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>24</v>
@@ -3822,9 +3826,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3897,23 +3901,23 @@
         <f t="shared" ref="A9:A14" si="0">ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="B9" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="72" t="s">
+      <c r="B9" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="71" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="72">
         <f t="shared" ref="E9:E15" si="1">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="74" t="s">
         <v>129</v>
       </c>
       <c r="H9" s="6"/>
@@ -3924,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
@@ -3932,7 +3936,7 @@
       <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="72">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3950,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="59" t="s">
         <v>10</v>
@@ -3958,7 +3962,7 @@
       <c r="D11" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="72">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3971,28 +3975,28 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="60">
+      <c r="A12" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="62" t="s">
+      <c r="B12" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="72">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="66" t="s">
-        <v>130</v>
+      <c r="G12" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -4002,15 +4006,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>141</v>
       </c>
       <c r="D13" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="72">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -4028,10 +4032,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="D14" s="63" t="s">
         <v>1</v>
@@ -4049,27 +4053,27 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="60">
+      <c r="A15" s="58">
         <v>7</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="63" t="s">
+      <c r="B15" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="72">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="66" t="s">
-        <v>130</v>
+      <c r="G15" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -4077,22 +4081,22 @@
       <c r="A16" s="58">
         <v>8</v>
       </c>
-      <c r="B16" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="71" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="72">
         <v>60</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="75" t="s">
+      <c r="G16" s="74" t="s">
         <v>129</v>
       </c>
       <c r="H16" s="9"/>
@@ -4102,10 +4106,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>2</v>
@@ -4113,7 +4117,7 @@
       <c r="E17" s="64">
         <v>120</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="68" t="s">
         <v>121</v>
       </c>
       <c r="G17" s="66" t="s">
@@ -4126,7 +4130,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -4134,7 +4138,7 @@
       <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="72">
         <f t="shared" ref="E18:E21" si="2">IF(D18="Complex", 240, IF(D18="Medium",120,60))</f>
         <v>60</v>
       </c>
@@ -4151,15 +4155,15 @@
         <v>11</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="72">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -4172,52 +4176,52 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60">
+      <c r="A20" s="58">
         <v>12</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="63" t="s">
+      <c r="C20" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="72">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="66" t="s">
-        <v>130</v>
+      <c r="G20" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60">
+      <c r="A21" s="58">
         <v>13</v>
       </c>
-      <c r="B21" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="64">
+      <c r="B21" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="72">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="66" t="s">
-        <v>130</v>
+      <c r="G21" s="74" t="s">
+        <v>129</v>
       </c>
       <c r="H21" s="9"/>
     </row>
@@ -4226,22 +4230,22 @@
         <v>14</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="71" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="72">
         <f t="shared" ref="E22:E23" si="3">IF(D22="Complex", 240, IF(D22="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="75" t="s">
+      <c r="G22" s="74" t="s">
         <v>129</v>
       </c>
       <c r="H22" s="9"/>
@@ -4250,23 +4254,23 @@
       <c r="A23" s="58">
         <v>15</v>
       </c>
-      <c r="B23" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>142</v>
+      <c r="B23" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>141</v>
       </c>
       <c r="D23" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="72">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F23" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="75" t="s">
+      <c r="G23" s="74" t="s">
         <v>129</v>
       </c>
       <c r="H23" s="9"/>

--- a/W8/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
+++ b/W8/Excel/SWP391-OnlineShopping_Product Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -524,9 +524,6 @@
     <t>View Shop</t>
   </si>
   <si>
-    <t>Manage requests</t>
-  </si>
-  <si>
     <t>View Services</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>List of Report</t>
+  </si>
+  <si>
+    <t>Comment Blog</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,9 +959,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -971,14 +968,10 @@
     <xf numFmtId="1" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1001,6 +994,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3061,7 +3057,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
@@ -3127,9 +3123,9 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3224,28 +3220,28 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="60">
+      <c r="A10" s="58">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B10" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="64">
+      <c r="B10" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="69">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="66" t="s">
-        <v>130</v>
+      <c r="G10" s="71" t="s">
+        <v>129</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -3255,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -3319,7 +3315,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="66" t="s">
         <v>125</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -3333,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -3382,23 +3378,23 @@
       <c r="A16" s="58">
         <v>8</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="68" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="74">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H16" s="9"/>
@@ -3578,22 +3574,22 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B10" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="74">
         <v>60</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="74" t="s">
+      <c r="G10" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H10" s="9"/>
@@ -3630,7 +3626,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>10</v>
@@ -3656,7 +3652,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>25</v>
@@ -3664,14 +3660,14 @@
       <c r="D13" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="74">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H13" s="9"/>
@@ -3682,7 +3678,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
@@ -3706,7 +3702,7 @@
       <c r="A15" s="58">
         <v>7</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="68" t="s">
         <v>155</v>
       </c>
       <c r="C15" s="59" t="s">
@@ -3715,14 +3711,14 @@
       <c r="D15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="74">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H15" s="9"/>
@@ -3732,7 +3728,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>25</v>
@@ -3759,20 +3755,20 @@
       <c r="B17" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="74">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F17" s="73" t="s">
+      <c r="F17" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H17" s="6"/>
@@ -3826,9 +3822,9 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3901,23 +3897,23 @@
         <f t="shared" ref="A9:A14" si="0">ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="B9" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="69">
         <f t="shared" ref="E9:E15" si="1">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H9" s="6"/>
@@ -3936,7 +3932,7 @@
       <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="69">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3962,7 +3958,7 @@
       <c r="D11" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="69">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -3982,20 +3978,20 @@
       <c r="B12" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="68" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="69">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="74" t="s">
+      <c r="G12" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H12" s="6"/>
@@ -4008,13 +4004,13 @@
       <c r="B13" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="68" t="s">
         <v>141</v>
       </c>
       <c r="D13" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="69">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -4031,23 +4027,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="62" t="s">
+      <c r="B14" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="64">
+      <c r="D14" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="63">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="64" t="s">
         <v>130</v>
       </c>
       <c r="H14" s="9"/>
@@ -4059,20 +4055,20 @@
       <c r="B15" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="68" t="s">
         <v>141</v>
       </c>
       <c r="D15" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="69">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H15" s="9"/>
@@ -4081,47 +4077,47 @@
       <c r="A16" s="58">
         <v>8</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="71" t="s">
+      <c r="B16" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="68" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="69">
         <v>60</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="60">
+      <c r="A17" s="58">
         <v>9</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="69">
         <v>120</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="66" t="s">
-        <v>130</v>
+      <c r="G17" s="71" t="s">
+        <v>129</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -4130,7 +4126,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
@@ -4138,7 +4134,7 @@
       <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="69">
         <f t="shared" ref="E18:E21" si="2">IF(D18="Complex", 240, IF(D18="Medium",120,60))</f>
         <v>60</v>
       </c>
@@ -4163,7 +4159,7 @@
       <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="69">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -4179,23 +4175,23 @@
       <c r="A20" s="58">
         <v>12</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="68" t="s">
         <v>141</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="69">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="F20" s="78" t="s">
+      <c r="F20" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="74" t="s">
+      <c r="G20" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H20" s="6"/>
@@ -4204,23 +4200,23 @@
       <c r="A21" s="58">
         <v>13</v>
       </c>
-      <c r="B21" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="71" t="s">
+      <c r="B21" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="68" t="s">
         <v>141</v>
       </c>
       <c r="D21" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="69">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H21" s="9"/>
@@ -4232,20 +4228,20 @@
       <c r="B22" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="69">
         <f t="shared" ref="E22:E23" si="3">IF(D22="Complex", 240, IF(D22="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H22" s="9"/>
@@ -4254,23 +4250,23 @@
       <c r="A23" s="58">
         <v>15</v>
       </c>
-      <c r="B23" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="71" t="s">
+      <c r="B23" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="68" t="s">
         <v>141</v>
       </c>
       <c r="D23" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="69">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="74" t="s">
+      <c r="G23" s="71" t="s">
         <v>129</v>
       </c>
       <c r="H23" s="9"/>
